--- a/data/trans_orig/IMC_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Clase-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2007 (tasa de respuesta: 98,86%)</t>
+          <t>Población según si tienen obesidad en 2007 (tasa de respuesta: 98,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2315,7 +2315,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2012 (tasa de respuesta: 96,9%)</t>
+          <t>Población según si tienen obesidad en 2012 (tasa de respuesta: 96,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4076,7 +4076,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2016 (tasa de respuesta: 95,54%)</t>
+          <t>Población según si tienen obesidad en 2016 (tasa de respuesta: 95,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5837,7 +5837,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2023 (tasa de respuesta: 96,36%)</t>
+          <t>Población según si tienen obesidad en 2023 (tasa de respuesta: 96,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/IMC_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>52604</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39970</v>
+        <v>38620</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>70676</v>
+        <v>67278</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1120412454164379</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08513208350445776</v>
+        <v>0.08225746044888664</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1505341938887245</v>
+        <v>0.1432965574395926</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -765,19 +765,19 @@
         <v>15958</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8779</v>
+        <v>9695</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24634</v>
+        <v>24967</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05251934356026731</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02889260800540573</v>
+        <v>0.03190753015642073</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08107310201450674</v>
+        <v>0.08216781867465174</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>65</v>
@@ -786,19 +786,19 @@
         <v>68562</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53874</v>
+        <v>53537</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85945</v>
+        <v>87915</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0886550226372516</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06966234380181016</v>
+        <v>0.06922658541758306</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1111327946207225</v>
+        <v>0.11368056642628</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>416899</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>398827</v>
+        <v>402225</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>429533</v>
+        <v>430883</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8879587545835621</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8494658061112755</v>
+        <v>0.8567034425604074</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9148679164955422</v>
+        <v>0.9177425395511134</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>280</v>
@@ -836,19 +836,19 @@
         <v>287894</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>279218</v>
+        <v>278885</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>295073</v>
+        <v>294157</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9474806564397327</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9189268979854934</v>
+        <v>0.9178321813253486</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9711073919945943</v>
+        <v>0.9680924698435793</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>682</v>
@@ -857,19 +857,19 @@
         <v>704793</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>687410</v>
+        <v>685440</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>719481</v>
+        <v>719818</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9113449773627484</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8888672053792771</v>
+        <v>0.8863194335737196</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9303376561981898</v>
+        <v>0.9307734145824165</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>44612</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33737</v>
+        <v>32986</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60075</v>
+        <v>58711</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1231917695374216</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09316084366501426</v>
+        <v>0.09108926609324623</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.165893332701613</v>
+        <v>0.1621252373144196</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -982,19 +982,19 @@
         <v>27465</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18500</v>
+        <v>18822</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38850</v>
+        <v>38352</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07444841014635124</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05014835909277317</v>
+        <v>0.0510199191653403</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1053097962212702</v>
+        <v>0.1039582703089355</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>68</v>
@@ -1003,19 +1003,19 @@
         <v>72077</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>56899</v>
+        <v>56803</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>89998</v>
+        <v>90041</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09859394418384484</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07783269392574271</v>
+        <v>0.07770032413093705</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1231087795374196</v>
+        <v>0.1231672983296446</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>317520</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>302057</v>
+        <v>303421</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>328395</v>
+        <v>329146</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8768082304625784</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8341066672983865</v>
+        <v>0.8378747626855803</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9068391563349857</v>
+        <v>0.9089107339067537</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>333</v>
@@ -1053,19 +1053,19 @@
         <v>341450</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>330065</v>
+        <v>330563</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>350415</v>
+        <v>350093</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9255515898536487</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8946902037787297</v>
+        <v>0.8960417296910644</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9498516409072268</v>
+        <v>0.9489800808346596</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>637</v>
@@ -1074,19 +1074,19 @@
         <v>658970</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>641049</v>
+        <v>641006</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>674148</v>
+        <v>674244</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9014060558161552</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8768912204625805</v>
+        <v>0.8768327016703554</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9221673060742575</v>
+        <v>0.9222996758690629</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>84059</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>68384</v>
+        <v>67860</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>101881</v>
+        <v>101694</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1549785196175697</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.126079735330991</v>
+        <v>0.1251139175919116</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1878372999407972</v>
+        <v>0.1874919914560354</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -1199,19 +1199,19 @@
         <v>29172</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20249</v>
+        <v>19821</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39565</v>
+        <v>39392</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.177141608682655</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1229602373434377</v>
+        <v>0.120359395743246</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2402579629200857</v>
+        <v>0.2392070570519158</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>112</v>
@@ -1220,19 +1220,19 @@
         <v>113230</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>94211</v>
+        <v>93872</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>135920</v>
+        <v>133034</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.160140380199541</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.133242335574316</v>
+        <v>0.1327621732800399</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1922298726217956</v>
+        <v>0.1881485821706679</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>458330</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>440508</v>
+        <v>440695</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>474005</v>
+        <v>474529</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8450214803824303</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8121627000592028</v>
+        <v>0.8125080085439645</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8739202646690087</v>
+        <v>0.8748860824080882</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>132</v>
@@ -1270,19 +1270,19 @@
         <v>135507</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>125114</v>
+        <v>125287</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>144430</v>
+        <v>144858</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8228583913173451</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7597420370799156</v>
+        <v>0.760792942948084</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8770397626565626</v>
+        <v>0.8796406042567539</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>581</v>
@@ -1291,19 +1291,19 @@
         <v>593838</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>571148</v>
+        <v>574034</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>612857</v>
+        <v>613196</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.839859619800459</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8077701273782044</v>
+        <v>0.8118514178293323</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.866757664425684</v>
+        <v>0.8672378267199602</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>162491</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>139278</v>
+        <v>138090</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>186245</v>
+        <v>185402</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1324895872281084</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.113562462373808</v>
+        <v>0.1125939930877786</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1518572923757867</v>
+        <v>0.1511700192775057</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>91</v>
@@ -1416,19 +1416,19 @@
         <v>94855</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>78061</v>
+        <v>78138</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>114164</v>
+        <v>115922</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1337198169174991</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1100447051288233</v>
+        <v>0.1101539027788247</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1609412505901314</v>
+        <v>0.163419867799387</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>253</v>
@@ -1437,19 +1437,19 @@
         <v>257346</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>226500</v>
+        <v>231580</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>287008</v>
+        <v>289837</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1329403917681909</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1170057256760105</v>
+        <v>0.1196301328293475</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.148263083491922</v>
+        <v>0.1497248052439155</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1063955</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1040201</v>
+        <v>1041044</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1087168</v>
+        <v>1088356</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8675104127718916</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8481427076242135</v>
+        <v>0.8488299807224943</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.886437537626192</v>
+        <v>0.8874060069122214</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>598</v>
@@ -1487,19 +1487,19 @@
         <v>614498</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>595189</v>
+        <v>593431</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>631292</v>
+        <v>631215</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8662801830825009</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8390587494098686</v>
+        <v>0.8365801322006129</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8899552948711764</v>
+        <v>0.8898460972211754</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1648</v>
@@ -1508,19 +1508,19 @@
         <v>1678454</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1648792</v>
+        <v>1645963</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1709300</v>
+        <v>1704220</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8670596082318092</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.851736916508078</v>
+        <v>0.8502751947560847</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8829942743239895</v>
+        <v>0.8803698671706526</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>41757</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31304</v>
+        <v>29893</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56465</v>
+        <v>55203</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1219971623990696</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0914585029702662</v>
+        <v>0.08733757274616014</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1649687319887558</v>
+        <v>0.1612836577942177</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>102</v>
@@ -1633,19 +1633,19 @@
         <v>107766</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>90817</v>
+        <v>89786</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>128298</v>
+        <v>130073</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1929768524544182</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1626261162153483</v>
+        <v>0.1607794266008739</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2297433755046518</v>
+        <v>0.2329216871057725</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>142</v>
@@ -1654,19 +1654,19 @@
         <v>149523</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>127588</v>
+        <v>127015</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>176524</v>
+        <v>173409</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1660043472524533</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1416518227731733</v>
+        <v>0.1410155876812156</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1959813934982702</v>
+        <v>0.1925230652239698</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>300518</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>285810</v>
+        <v>287072</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>310971</v>
+        <v>312382</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8780028376009303</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8350312680112438</v>
+        <v>0.8387163422057839</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9085414970297337</v>
+        <v>0.9126624272538403</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>428</v>
@@ -1704,19 +1704,19 @@
         <v>450675</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>430143</v>
+        <v>428368</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>467624</v>
+        <v>468655</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8070231475455818</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7702566244953482</v>
+        <v>0.7670783128942267</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8373738837846518</v>
+        <v>0.839220573399126</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>720</v>
@@ -1725,19 +1725,19 @@
         <v>751193</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>724192</v>
+        <v>727307</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>773128</v>
+        <v>773701</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8339956527475467</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8040186065017296</v>
+        <v>0.8074769347760303</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8583481772268264</v>
+        <v>0.8589844123187845</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>7973</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3914</v>
+        <v>3917</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14881</v>
+        <v>15019</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0268975046371236</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01320227454545798</v>
+        <v>0.01321509059466705</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05020079817857698</v>
+        <v>0.05066557268702519</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>218</v>
@@ -1850,19 +1850,19 @@
         <v>222095</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>195739</v>
+        <v>196059</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>250415</v>
+        <v>248891</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1810560298942548</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1595704167613344</v>
+        <v>0.1598311353669493</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2041432557595447</v>
+        <v>0.2029009185030569</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>226</v>
@@ -1871,19 +1871,19 @@
         <v>230069</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>202755</v>
+        <v>203827</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>258818</v>
+        <v>262560</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1510524734686012</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1331198238698046</v>
+        <v>0.1338234100031923</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1699277987836568</v>
+        <v>0.1723849969734318</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>288466</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>281558</v>
+        <v>281420</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>292525</v>
+        <v>292522</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9731024953628764</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9497992018214231</v>
+        <v>0.9493344273129748</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.986797725454542</v>
+        <v>0.9867849094053329</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1000</v>
@@ -1921,19 +1921,19 @@
         <v>1004570</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>976250</v>
+        <v>977774</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1030926</v>
+        <v>1030606</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8189439701057453</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7958567442404555</v>
+        <v>0.7970990814969434</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.840429583238666</v>
+        <v>0.840168864633051</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1296</v>
@@ -1942,19 +1942,19 @@
         <v>1293035</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1264286</v>
+        <v>1260544</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1320349</v>
+        <v>1319277</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8489475265313988</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8300722012163431</v>
+        <v>0.8276150030265682</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8668801761301954</v>
+        <v>0.8661765899968076</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>393495</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>358548</v>
+        <v>359520</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>432467</v>
+        <v>428748</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1214798101331154</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1106908520053986</v>
+        <v>0.1109908587520502</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1335110274957939</v>
+        <v>0.1323630627164576</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>483</v>
@@ -2067,19 +2067,19 @@
         <v>497311</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>457227</v>
+        <v>461077</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>534494</v>
+        <v>542952</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1492571346772422</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1372270167260301</v>
+        <v>0.1383823331607493</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1604169995652397</v>
+        <v>0.1629555483870949</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>866</v>
@@ -2088,19 +2088,19 @@
         <v>890806</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>835343</v>
+        <v>834502</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>942207</v>
+        <v>948575</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1355644485323111</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1271239733432954</v>
+        <v>0.1269960261113949</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1433867437299335</v>
+        <v>0.1443558108647766</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2845689</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2806717</v>
+        <v>2810436</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2880636</v>
+        <v>2879664</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8785201898668846</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.866488972504206</v>
+        <v>0.8676369372835423</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8893091479946013</v>
+        <v>0.8890091412479497</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2771</v>
@@ -2138,19 +2138,19 @@
         <v>2834594</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2797411</v>
+        <v>2788953</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2874678</v>
+        <v>2870828</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8507428653227578</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8395830004347602</v>
+        <v>0.8370444516129054</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8627729832739698</v>
+        <v>0.8616176668392508</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5564</v>
@@ -2159,19 +2159,19 @@
         <v>5680283</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5628882</v>
+        <v>5622514</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5735746</v>
+        <v>5736587</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8644355514676888</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8566132562700665</v>
+        <v>0.8556441891352232</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8728760266567046</v>
+        <v>0.8730039738886051</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>52754</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39714</v>
+        <v>40421</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>69553</v>
+        <v>68101</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1227191820651517</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09238485854420732</v>
+        <v>0.09403051591253478</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1617981321413406</v>
+        <v>0.1584205304026527</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -2526,19 +2526,19 @@
         <v>21606</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14775</v>
+        <v>13528</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32505</v>
+        <v>32832</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06938022837388953</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04744334672934518</v>
+        <v>0.04344152796962814</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.10437881173745</v>
+        <v>0.1054298574641408</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>69</v>
@@ -2547,19 +2547,19 @@
         <v>74360</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>57758</v>
+        <v>59754</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>93117</v>
+        <v>92470</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1003115488698977</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07791505183143033</v>
+        <v>0.08060741638394149</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1256152851812452</v>
+        <v>0.1247424981862505</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>377121</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>360322</v>
+        <v>361774</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>390161</v>
+        <v>389454</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8772808179348484</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8382018678586594</v>
+        <v>0.8415794695973473</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9076151414557927</v>
+        <v>0.9059694840874652</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>259</v>
@@ -2597,19 +2597,19 @@
         <v>289809</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>278910</v>
+        <v>278583</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>296640</v>
+        <v>297887</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9306197716261104</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.89562118826255</v>
+        <v>0.8945701425358588</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9525566532706548</v>
+        <v>0.9565584720303719</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>608</v>
@@ -2618,19 +2618,19 @@
         <v>666931</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>648174</v>
+        <v>648821</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>683533</v>
+        <v>681537</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8996884511301023</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8743847148187548</v>
+        <v>0.8752575018137495</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9220849481685697</v>
+        <v>0.9193925836160585</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>61748</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47462</v>
+        <v>47090</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77554</v>
+        <v>78567</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1528202178406791</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1174634651302722</v>
+        <v>0.1165422797142068</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1919394097066931</v>
+        <v>0.1944454565994997</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -2743,19 +2743,19 @@
         <v>36561</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25881</v>
+        <v>25796</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49632</v>
+        <v>49850</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1119531427817414</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07925022711595157</v>
+        <v>0.07898919393390159</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1519806274828966</v>
+        <v>0.1526454707559549</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>90</v>
@@ -2764,19 +2764,19 @@
         <v>98309</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79642</v>
+        <v>78358</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>119115</v>
+        <v>119718</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1345537094752273</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1090052688657581</v>
+        <v>0.1072481481742287</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1630314982288269</v>
+        <v>0.1638562572681378</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>342308</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>326502</v>
+        <v>325489</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>356594</v>
+        <v>356966</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8471797821593209</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.808060590293307</v>
+        <v>0.8055545434005004</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8825365348697278</v>
+        <v>0.8834577202857932</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>262</v>
@@ -2814,19 +2814,19 @@
         <v>290010</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>276939</v>
+        <v>276721</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>300690</v>
+        <v>300775</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8880468572182586</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8480193725171035</v>
+        <v>0.8473545292440449</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9207497728840485</v>
+        <v>0.9210108060660983</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>568</v>
@@ -2835,19 +2835,19 @@
         <v>632318</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>611512</v>
+        <v>610909</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>650985</v>
+        <v>652269</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8654462905247727</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8369685017711731</v>
+        <v>0.8361437427318621</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8909947311342419</v>
+        <v>0.8927518518257711</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>131397</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>111503</v>
+        <v>112049</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>152000</v>
+        <v>152911</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2121824231617385</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1800572345181823</v>
+        <v>0.1809382028478355</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2454520665484566</v>
+        <v>0.2469224209588446</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -2960,19 +2960,19 @@
         <v>64192</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49065</v>
+        <v>51242</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78910</v>
+        <v>79260</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2624803272207801</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.200625872891266</v>
+        <v>0.2095289519956247</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3226618132364243</v>
+        <v>0.3240949465978856</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>178</v>
@@ -2981,19 +2981,19 @@
         <v>195589</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>170802</v>
+        <v>170377</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>221900</v>
+        <v>223666</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2264223414579721</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1977277611121009</v>
+        <v>0.1972357382560544</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2568813940423125</v>
+        <v>0.25892514824156</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>487869</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>467266</v>
+        <v>466355</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>507763</v>
+        <v>507217</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7878175768382615</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7545479334515433</v>
+        <v>0.7530775790411554</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8199427654818177</v>
+        <v>0.8190617971521647</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>169</v>
@@ -3031,19 +3031,19 @@
         <v>180367</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>165649</v>
+        <v>165299</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>195494</v>
+        <v>193317</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7375196727792199</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6773381867635758</v>
+        <v>0.6759050534021146</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.799374127108734</v>
+        <v>0.7904710480043753</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>633</v>
@@ -3052,19 +3052,19 @@
         <v>668235</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>641924</v>
+        <v>640158</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>693022</v>
+        <v>693447</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7735776585420279</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7431186059576875</v>
+        <v>0.7410748517584401</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8022722388878991</v>
+        <v>0.8027642617439457</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>208187</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>183401</v>
+        <v>182885</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>237459</v>
+        <v>238647</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1822082115742709</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1605158778809681</v>
+        <v>0.1600641293240142</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.207828075561421</v>
+        <v>0.2088680117323799</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>129</v>
@@ -3177,19 +3177,19 @@
         <v>139763</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>120681</v>
+        <v>119280</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>166321</v>
+        <v>164566</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1856245195396575</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1602810275366688</v>
+        <v>0.1584207815841867</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2208977961186359</v>
+        <v>0.2185673788279464</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>320</v>
@@ -3198,19 +3198,19 @@
         <v>347949</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>314177</v>
+        <v>312810</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>385331</v>
+        <v>384561</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1835652350808509</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1657485757935315</v>
+        <v>0.165027202967832</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2032863578710107</v>
+        <v>0.2028805535469126</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>934388</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>905116</v>
+        <v>903928</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>959174</v>
+        <v>959690</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8177917884257291</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.792171924438579</v>
+        <v>0.7911319882676203</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8394841221190319</v>
+        <v>0.8399358706759861</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>569</v>
@@ -3248,19 +3248,19 @@
         <v>613169</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>586611</v>
+        <v>588366</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>632251</v>
+        <v>633652</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8143754804603426</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7791022038813641</v>
+        <v>0.7814326211720536</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8397189724633308</v>
+        <v>0.8415792184158132</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1446</v>
@@ -3269,19 +3269,19 @@
         <v>1547557</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1510175</v>
+        <v>1510945</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1581329</v>
+        <v>1582696</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8164347649191491</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7967136421289891</v>
+        <v>0.7971194464530874</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8342514242064685</v>
+        <v>0.834972797032168</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>90884</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>75894</v>
+        <v>74848</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>109714</v>
+        <v>110382</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1837061208552774</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1534068902284183</v>
+        <v>0.1512914343907726</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2217680615940098</v>
+        <v>0.2231168341530696</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>183</v>
@@ -3394,19 +3394,19 @@
         <v>196263</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>172504</v>
+        <v>171656</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>221833</v>
+        <v>223055</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2755231129155263</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2421683220213283</v>
+        <v>0.2409777409438631</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3114182541885214</v>
+        <v>0.3131338194529105</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>269</v>
@@ -3415,19 +3415,19 @@
         <v>287148</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>259641</v>
+        <v>255813</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>320004</v>
+        <v>316435</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2378908265488139</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2151021620773862</v>
+        <v>0.2119315211491519</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2651111318020956</v>
+        <v>0.2621542809209984</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>403842</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>385012</v>
+        <v>384344</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>418832</v>
+        <v>419878</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8162938791447225</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7782319384059899</v>
+        <v>0.7768831658469304</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8465931097715816</v>
+        <v>0.8487085656092275</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>473</v>
@@ -3465,19 +3465,19 @@
         <v>516067</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>490497</v>
+        <v>489275</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>539826</v>
+        <v>540674</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7244768870844738</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6885817458114787</v>
+        <v>0.6868661805470894</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7578316779786719</v>
+        <v>0.7590222590561367</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>859</v>
@@ -3486,19 +3486,19 @@
         <v>919909</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>887053</v>
+        <v>890622</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>947416</v>
+        <v>951244</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7621091734511861</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7348888681979046</v>
+        <v>0.7378457190790016</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7848978379226139</v>
+        <v>0.7880684788508483</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>10333</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5155</v>
+        <v>5119</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18349</v>
+        <v>17567</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03885577024328305</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01938630072449544</v>
+        <v>0.01924774472565401</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0689987859917357</v>
+        <v>0.06605882747390462</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>240</v>
@@ -3611,19 +3611,19 @@
         <v>256607</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>229072</v>
+        <v>228430</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>286520</v>
+        <v>285719</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2437893317443554</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2176304642151436</v>
+        <v>0.2170196939350486</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2722090706132812</v>
+        <v>0.2714480848352484</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>250</v>
@@ -3632,19 +3632,19 @@
         <v>266939</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>235935</v>
+        <v>239056</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>296426</v>
+        <v>296787</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2024564666235769</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1789417014562051</v>
+        <v>0.181308620237967</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2248197520445792</v>
+        <v>0.2250938469394209</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>255595</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>247579</v>
+        <v>248361</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260773</v>
+        <v>260809</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.961144229756717</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9310012140082644</v>
+        <v>0.9339411725260954</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9806136992755046</v>
+        <v>0.9807522552743461</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>751</v>
@@ -3682,19 +3682,19 @@
         <v>795968</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>766055</v>
+        <v>766856</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>823503</v>
+        <v>824145</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7562106682556445</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7277909293867187</v>
+        <v>0.7285519151647516</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7823695357848564</v>
+        <v>0.7829803060649514</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1005</v>
@@ -3703,19 +3703,19 @@
         <v>1051564</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1022077</v>
+        <v>1021716</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1082568</v>
+        <v>1079447</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.797543533376423</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7751802479554208</v>
+        <v>0.7749061530605791</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8210582985437949</v>
+        <v>0.8186913797620329</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>555303</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>513719</v>
+        <v>511839</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>602380</v>
+        <v>604551</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1654446684942847</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1530553441025325</v>
+        <v>0.1524953803485359</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.179470788755303</v>
+        <v>0.1801174294877362</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>666</v>
@@ -3828,19 +3828,19 @@
         <v>714991</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>665777</v>
+        <v>669037</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>766148</v>
+        <v>764624</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2102678837314265</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1957946741005049</v>
+        <v>0.1967533906436132</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2253124429032528</v>
+        <v>0.224864149966152</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1176</v>
@@ -3849,19 +3849,19 @@
         <v>1270294</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1202960</v>
+        <v>1208212</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1334246</v>
+        <v>1344275</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1880020748916954</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1780367294620193</v>
+        <v>0.1788140383872156</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.197466911972201</v>
+        <v>0.1989512610055652</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2801123</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2754046</v>
+        <v>2751875</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2842707</v>
+        <v>2844587</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8345553315057154</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8205292112446974</v>
+        <v>0.819882570512264</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8469446558974676</v>
+        <v>0.8475046196514642</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2483</v>
@@ -3899,19 +3899,19 @@
         <v>2685391</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2634234</v>
+        <v>2635758</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2734605</v>
+        <v>2731345</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7897321162685734</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7746875570967472</v>
+        <v>0.775135850033848</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8042053258994957</v>
+        <v>0.8032466093563868</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5119</v>
@@ -3920,19 +3920,19 @@
         <v>5486514</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5422562</v>
+        <v>5412533</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5553848</v>
+        <v>5548596</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8119979251083046</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.802533088027799</v>
+        <v>0.8010487389944351</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8219632705379808</v>
+        <v>0.8211859616127845</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>70669</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>55757</v>
+        <v>56750</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>86124</v>
+        <v>89384</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1668411617632108</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1316344705159289</v>
+        <v>0.1339787924210724</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2033283199590162</v>
+        <v>0.2110240936422757</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -4287,19 +4287,19 @@
         <v>36702</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25302</v>
+        <v>25452</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50322</v>
+        <v>49179</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1092864672898516</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07533953784429562</v>
+        <v>0.07578751883754452</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1498411480799915</v>
+        <v>0.1464376842204309</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>98</v>
@@ -4308,19 +4308,19 @@
         <v>107372</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>89455</v>
+        <v>90431</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>129683</v>
+        <v>129505</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1413885412736547</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1177954808092187</v>
+        <v>0.1190803408704095</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.170768434804144</v>
+        <v>0.1705333532663233</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>352904</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>337449</v>
+        <v>334189</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>367816</v>
+        <v>366823</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8331588382367893</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7966716800409839</v>
+        <v>0.7889759063577243</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.868365529484071</v>
+        <v>0.8660212075789275</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>288</v>
@@ -4358,19 +4358,19 @@
         <v>299134</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>285514</v>
+        <v>286657</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>310534</v>
+        <v>310384</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8907135327101484</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8501588519200086</v>
+        <v>0.8535623157795693</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9246604621557046</v>
+        <v>0.9242124811624557</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>614</v>
@@ -4379,19 +4379,19 @@
         <v>652037</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>629726</v>
+        <v>629904</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>669954</v>
+        <v>668978</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8586114587263454</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8292315651958561</v>
+        <v>0.8294666467336768</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8822045191907814</v>
+        <v>0.8809196591295905</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>52908</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40335</v>
+        <v>39551</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66430</v>
+        <v>67637</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.14433808440945</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1100390660307102</v>
+        <v>0.1078982864609612</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1812286134590087</v>
+        <v>0.1845211292829398</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -4504,19 +4504,19 @@
         <v>36182</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24835</v>
+        <v>25148</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48615</v>
+        <v>49323</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1000025812679534</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06864167393604474</v>
+        <v>0.06950757177807436</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1343681767837434</v>
+        <v>0.136325665087819</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>82</v>
@@ -4525,19 +4525,19 @@
         <v>89089</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72072</v>
+        <v>72291</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>107913</v>
+        <v>107865</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1223148851445624</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09895072755032699</v>
+        <v>0.09925145179245828</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1481591278801202</v>
+        <v>0.1480928741213726</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>313647</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>300125</v>
+        <v>298918</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>326220</v>
+        <v>327004</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.85566191559055</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8187713865409911</v>
+        <v>0.8154788707170603</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8899609339692898</v>
+        <v>0.8921017135390388</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>311</v>
@@ -4575,19 +4575,19 @@
         <v>325624</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>313191</v>
+        <v>312483</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>336971</v>
+        <v>336658</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8999974187320466</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8656318232162566</v>
+        <v>0.8636743349121809</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9313583260639553</v>
+        <v>0.9304924282219257</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>605</v>
@@ -4596,19 +4596,19 @@
         <v>639272</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>620448</v>
+        <v>620496</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>656289</v>
+        <v>656070</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8776851148554375</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8518408721198798</v>
+        <v>0.8519071258786277</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.901049272449673</v>
+        <v>0.9007485482075421</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>87532</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>71310</v>
+        <v>71047</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105450</v>
+        <v>106695</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.174027855400122</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.141776348735865</v>
+        <v>0.1412533884116894</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2096512596407166</v>
+        <v>0.2121267378640607</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -4721,19 +4721,19 @@
         <v>27432</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17389</v>
+        <v>18688</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38199</v>
+        <v>38133</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.175907426264856</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1115036216482568</v>
+        <v>0.1198359600567594</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2449444501543031</v>
+        <v>0.2445235168865501</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>109</v>
@@ -4742,19 +4742,19 @@
         <v>114964</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>95399</v>
+        <v>96577</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>134429</v>
+        <v>136895</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1744726952215815</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1447800715182116</v>
+        <v>0.1465675262093925</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2040127577904994</v>
+        <v>0.2077558608820354</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>415444</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>397526</v>
+        <v>396281</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>431666</v>
+        <v>431929</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.825972144599878</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7903487403592834</v>
+        <v>0.7878732621359392</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8582236512641349</v>
+        <v>0.8587466115883107</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>119</v>
@@ -4792,19 +4792,19 @@
         <v>128516</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>117749</v>
+        <v>117815</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>138559</v>
+        <v>137260</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.824092573735144</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.755055549845697</v>
+        <v>0.7554764831134498</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8884963783517431</v>
+        <v>0.8801640399432407</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>519</v>
@@ -4813,19 +4813,19 @@
         <v>543960</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>524495</v>
+        <v>522029</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>563525</v>
+        <v>562347</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8255273047784185</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7959872422095006</v>
+        <v>0.7922441391179645</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8552199284817884</v>
+        <v>0.8534324737906075</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>211194</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>185854</v>
+        <v>184979</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>239296</v>
+        <v>238538</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1907247502640987</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1678401699867035</v>
+        <v>0.1670499879222814</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2161027316428017</v>
+        <v>0.2154184144195474</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>113</v>
@@ -4938,19 +4938,19 @@
         <v>121101</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>101562</v>
+        <v>101253</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>143644</v>
+        <v>142083</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1545362747972011</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1296019957036865</v>
+        <v>0.1292085154843929</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1833032797209979</v>
+        <v>0.1813112472164728</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>312</v>
@@ -4959,19 +4959,19 @@
         <v>332295</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>297621</v>
+        <v>301367</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>364434</v>
+        <v>369758</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1757277577276194</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1573910379430903</v>
+        <v>0.1593719657560137</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1927236925389909</v>
+        <v>0.1955393539584112</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>896131</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>868029</v>
+        <v>868787</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>921471</v>
+        <v>922346</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8092752497359013</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7838972683571983</v>
+        <v>0.7845815855804527</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8321598300132965</v>
+        <v>0.8329500120777187</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>646</v>
@@ -5009,19 +5009,19 @@
         <v>662541</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>639998</v>
+        <v>641559</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>682080</v>
+        <v>682389</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8454637252027989</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8166967202790021</v>
+        <v>0.8186887527835272</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8703980042963135</v>
+        <v>0.8707914845156072</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1509</v>
@@ -5030,19 +5030,19 @@
         <v>1558672</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1526533</v>
+        <v>1521209</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1593346</v>
+        <v>1589600</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8242722422723806</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8072763074610091</v>
+        <v>0.8044606460415888</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8426089620569096</v>
+        <v>0.840628034243986</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>120494</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>101560</v>
+        <v>101849</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>141659</v>
+        <v>141180</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2048019111727865</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1726203337364964</v>
+        <v>0.1731104504663644</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2407751796864826</v>
+        <v>0.2399610953996158</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>157</v>
@@ -5155,19 +5155,19 @@
         <v>168670</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>145700</v>
+        <v>147155</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>193262</v>
+        <v>194395</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2452664754268003</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2118646418646803</v>
+        <v>0.2139805726974358</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2810255925499222</v>
+        <v>0.2826734804178375</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>272</v>
@@ -5176,19 +5176,19 @@
         <v>289164</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>259074</v>
+        <v>258960</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>321454</v>
+        <v>322763</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2266095152840243</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2030289648658919</v>
+        <v>0.2029396208284642</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2519144339259052</v>
+        <v>0.2529401408926718</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>467851</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>446686</v>
+        <v>447165</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>486785</v>
+        <v>486496</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7951980888272134</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7592248203135176</v>
+        <v>0.7600389046003841</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8273796662635037</v>
+        <v>0.8268895495336355</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>496</v>
@@ -5226,19 +5226,19 @@
         <v>519031</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>494439</v>
+        <v>493306</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>542001</v>
+        <v>540546</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7547335245731996</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7189744074500778</v>
+        <v>0.7173265195821625</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7881353581353198</v>
+        <v>0.7860194273025644</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>948</v>
@@ -5247,19 +5247,19 @@
         <v>986882</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>954592</v>
+        <v>953283</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1016972</v>
+        <v>1017086</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7733904847159757</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7480855660740948</v>
+        <v>0.7470598591073282</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7969710351341081</v>
+        <v>0.7970603791715357</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>13698</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7461</v>
+        <v>7114</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21913</v>
+        <v>22150</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04934480064717085</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02687833951878806</v>
+        <v>0.02562797393116526</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07893585441394052</v>
+        <v>0.07979256509445375</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>204</v>
@@ -5372,19 +5372,19 @@
         <v>231158</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>205398</v>
+        <v>204245</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>260797</v>
+        <v>260234</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2301342775337397</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2044878273925947</v>
+        <v>0.2033400919361776</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2596415754914865</v>
+        <v>0.2590814660086658</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>217</v>
@@ -5393,19 +5393,19 @@
         <v>244856</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>217406</v>
+        <v>216527</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>274608</v>
+        <v>277155</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1909883331897199</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1695774776810595</v>
+        <v>0.1688913852227031</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2141946722977287</v>
+        <v>0.2161816700293673</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>263901</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>255686</v>
+        <v>255449</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>270138</v>
+        <v>270485</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9506551993528292</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9210641455860596</v>
+        <v>0.920207434905546</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9731216604812121</v>
+        <v>0.9743720260688347</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>723</v>
@@ -5443,19 +5443,19 @@
         <v>773291</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>743652</v>
+        <v>744215</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>799051</v>
+        <v>800204</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7698657224662603</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7403584245085136</v>
+        <v>0.7409185339913341</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7955121726074054</v>
+        <v>0.7966599080638224</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>973</v>
@@ -5464,19 +5464,19 @@
         <v>1037192</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1007440</v>
+        <v>1004893</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1064642</v>
+        <v>1065521</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.80901166681028</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7858053277022713</v>
+        <v>0.7838183299706328</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8304225223189402</v>
+        <v>0.831108614777297</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>556496</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>513543</v>
+        <v>511202</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>601879</v>
+        <v>603578</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1703711198961564</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1572212782994286</v>
+        <v>0.1565045102288575</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1842652901561348</v>
+        <v>0.1847853401437039</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>565</v>
@@ -5589,19 +5589,19 @@
         <v>621246</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>577288</v>
+        <v>575308</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>675434</v>
+        <v>670065</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1865948459024142</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1733919448246533</v>
+        <v>0.1727971204172088</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2028705908352822</v>
+        <v>0.2012580226221104</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1090</v>
@@ -5610,19 +5610,19 @@
         <v>1177741</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1114868</v>
+        <v>1108357</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1240159</v>
+        <v>1249103</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1785604751413033</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1690281179010548</v>
+        <v>0.1680409240205929</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1880237963215373</v>
+        <v>0.1893798048893766</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2709877</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2664494</v>
+        <v>2662795</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2752830</v>
+        <v>2755171</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8296288801038436</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8157347098438654</v>
+        <v>0.8152146598562964</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8427787217005722</v>
+        <v>0.843495489771143</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2583</v>
@@ -5660,19 +5660,19 @@
         <v>2708136</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2653948</v>
+        <v>2659317</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2752094</v>
+        <v>2754074</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8134051540975857</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7971294091647179</v>
+        <v>0.7987419773778895</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8266080551753467</v>
+        <v>0.8272028795827912</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5168</v>
@@ -5681,19 +5681,19 @@
         <v>5418014</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5355596</v>
+        <v>5346652</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5480887</v>
+        <v>5487398</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8214395248586968</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8119762036784628</v>
+        <v>0.8106201951106233</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8309718820989451</v>
+        <v>0.8319590759794071</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>71950</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58381</v>
+        <v>57626</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>91540</v>
+        <v>89142</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1335937766459145</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1083991749941045</v>
+        <v>0.1069974049069095</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1699683225156786</v>
+        <v>0.1655169302901658</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>65</v>
@@ -6048,19 +6048,19 @@
         <v>43434</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33855</v>
+        <v>33886</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55067</v>
+        <v>54782</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09134383455665566</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07120006662182676</v>
+        <v>0.07126421138692865</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1158081439893929</v>
+        <v>0.1152094837976204</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>143</v>
@@ -6069,19 +6069,19 @@
         <v>115383</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>97141</v>
+        <v>96350</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>135464</v>
+        <v>135431</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1137827109736853</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09579322676935122</v>
+        <v>0.09501327513299022</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1335848262750848</v>
+        <v>0.133552481518374</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>466620</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>447030</v>
+        <v>449428</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>480189</v>
+        <v>480944</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8664062233540856</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8300316774843214</v>
+        <v>0.8344830697098341</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8916008250058955</v>
+        <v>0.8930025950930904</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>603</v>
@@ -6119,19 +6119,19 @@
         <v>432064</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>420431</v>
+        <v>420716</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>441643</v>
+        <v>441612</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9086561654433445</v>
+        <v>0.9086561654433443</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8841918560106078</v>
+        <v>0.8847905162023796</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9287999333781733</v>
+        <v>0.9287357886130714</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1066</v>
@@ -6140,19 +6140,19 @@
         <v>898684</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>878603</v>
+        <v>878636</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>916926</v>
+        <v>917717</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8862172890263148</v>
+        <v>0.8862172890263146</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8664151737249152</v>
+        <v>0.8664475184816259</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9042067732306487</v>
+        <v>0.9049867248670098</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>82074</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>66096</v>
+        <v>66798</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>101730</v>
+        <v>102385</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1722318534803904</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1387024223096466</v>
+        <v>0.1401752440645002</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2134813846427162</v>
+        <v>0.2148553588439175</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>83</v>
@@ -6265,19 +6265,19 @@
         <v>55437</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44646</v>
+        <v>44943</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>67986</v>
+        <v>67820</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1336851313599474</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1076613663101942</v>
+        <v>0.108377589757769</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1639468942164777</v>
+        <v>0.1635469088515656</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>166</v>
@@ -6286,19 +6286,19 @@
         <v>137511</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>118745</v>
+        <v>117484</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>158340</v>
+        <v>159303</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1542959536059731</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1332397522068191</v>
+        <v>0.1318244350624083</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1776675974122199</v>
+        <v>0.1787482894984996</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>394456</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>374800</v>
+        <v>374145</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>410434</v>
+        <v>409732</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8277681465196096</v>
+        <v>0.8277681465196097</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7865186153572836</v>
+        <v>0.7851446411560822</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8612975776903534</v>
+        <v>0.8598247559354998</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>493</v>
@@ -6336,19 +6336,19 @@
         <v>359248</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>346699</v>
+        <v>346865</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>370039</v>
+        <v>369742</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8663148686400526</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.836053105783522</v>
+        <v>0.8364530911484344</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8923386336898057</v>
+        <v>0.8916224102422309</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>883</v>
@@ -6357,19 +6357,19 @@
         <v>753703</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>732874</v>
+        <v>731911</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>772469</v>
+        <v>773730</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8457040463940267</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8223324025877801</v>
+        <v>0.8212517105015005</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8667602477931808</v>
+        <v>0.8681755649375917</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>92521</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>77825</v>
+        <v>76466</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>110107</v>
+        <v>111204</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.200369509066796</v>
+        <v>0.2003695090667961</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1685418507307184</v>
+        <v>0.1656001873224551</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2384540715096949</v>
+        <v>0.2408290686898413</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -6482,19 +6482,19 @@
         <v>27538</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20114</v>
+        <v>20343</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35444</v>
+        <v>35867</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1511274258011246</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1103865717164384</v>
+        <v>0.1116404138754153</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1945148327256089</v>
+        <v>0.196835159771991</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>147</v>
@@ -6503,19 +6503,19 @@
         <v>120059</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>103410</v>
+        <v>102653</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>139031</v>
+        <v>140664</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1864360685070722</v>
+        <v>0.1864360685070723</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.160581746250205</v>
+        <v>0.1594063163053125</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2158972151921131</v>
+        <v>0.218433575970739</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>369232</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>351646</v>
+        <v>350549</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>383928</v>
+        <v>385287</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7996304909332039</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7615459284903051</v>
+        <v>0.7591709313101587</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8314581492692815</v>
+        <v>0.8343998126775447</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>235</v>
@@ -6553,19 +6553,19 @@
         <v>154678</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>146772</v>
+        <v>146349</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>162102</v>
+        <v>161873</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8488725741988755</v>
+        <v>0.8488725741988754</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.805485167274391</v>
+        <v>0.803164840228009</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8896134282835616</v>
+        <v>0.8883595861245848</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>609</v>
@@ -6574,19 +6574,19 @@
         <v>523910</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>504938</v>
+        <v>503305</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>540559</v>
+        <v>541316</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8135639314929277</v>
+        <v>0.8135639314929278</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.784102784807887</v>
+        <v>0.7815664240292611</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8394182537497948</v>
+        <v>0.8405936836946873</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>215105</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>190022</v>
+        <v>188233</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>243030</v>
+        <v>241061</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.193465165309077</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1709061902308166</v>
+        <v>0.1692968412194221</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2185810022678949</v>
+        <v>0.2168106446630938</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>211</v>
@@ -6699,19 +6699,19 @@
         <v>139555</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>120752</v>
+        <v>121453</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>157322</v>
+        <v>159793</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1658943056523814</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1435424134800827</v>
+        <v>0.1443757917683623</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1870152484261602</v>
+        <v>0.1899518305144247</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>438</v>
@@ -6720,19 +6720,19 @@
         <v>354660</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>323397</v>
+        <v>321857</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>389249</v>
+        <v>392191</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1815898806681484</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1655832408150638</v>
+        <v>0.1647944119830821</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1992998325571838</v>
+        <v>0.2008065280771458</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>896747</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>868822</v>
+        <v>870791</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>921830</v>
+        <v>923619</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.806534834690923</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7814189977321051</v>
+        <v>0.7831893553369064</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8290938097691833</v>
+        <v>0.830703158780578</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>984</v>
@@ -6770,19 +6770,19 @@
         <v>701673</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>683906</v>
+        <v>681435</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>720476</v>
+        <v>719775</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8341056943476186</v>
+        <v>0.8341056943476187</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8129847515738398</v>
+        <v>0.8100481694855752</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8564575865199173</v>
+        <v>0.8556242082316379</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1853</v>
@@ -6791,19 +6791,19 @@
         <v>1598421</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1563832</v>
+        <v>1560890</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1629684</v>
+        <v>1631224</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8184101193318517</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8007001674428162</v>
+        <v>0.7991934719228543</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8344167591849363</v>
+        <v>0.8352055880169179</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>97396</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79531</v>
+        <v>79802</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>114492</v>
+        <v>116852</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1780460282772913</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1453877193481448</v>
+        <v>0.1458841737515981</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.209298869275646</v>
+        <v>0.2136125715381333</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>309</v>
@@ -6916,19 +6916,19 @@
         <v>194204</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>175633</v>
+        <v>174889</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>214419</v>
+        <v>213627</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2469247005806897</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2233133027174958</v>
+        <v>0.2223670852298263</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2726279363667828</v>
+        <v>0.2716212580864446</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>412</v>
@@ -6937,19 +6937,19 @@
         <v>291599</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>264603</v>
+        <v>265991</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>319095</v>
+        <v>318571</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2186697264013844</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1984251428097391</v>
+        <v>0.1994657891618413</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2392887166211968</v>
+        <v>0.2388953663523536</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>449630</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>432534</v>
+        <v>430174</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>467495</v>
+        <v>467224</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8219539717227088</v>
+        <v>0.8219539717227086</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7907011307243539</v>
+        <v>0.7863874284618666</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8546122806518552</v>
+        <v>0.8541158262484019</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>905</v>
@@ -6987,19 +6987,19 @@
         <v>592285</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>572070</v>
+        <v>572862</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>610856</v>
+        <v>611600</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7530752994193103</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7273720636332174</v>
+        <v>0.7283787419135556</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7766866972825041</v>
+        <v>0.7776329147701738</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1332</v>
@@ -7008,19 +7008,19 @@
         <v>1041916</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1014420</v>
+        <v>1014944</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1068912</v>
+        <v>1067524</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7813302735986156</v>
+        <v>0.7813302735986155</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7607112833788037</v>
+        <v>0.7611046336476464</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8015748571902608</v>
+        <v>0.8005342108381587</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>12825</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5130</v>
+        <v>5038</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29256</v>
+        <v>28937</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05519389992454789</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02207886811277053</v>
+        <v>0.02167899415647585</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1259023675269113</v>
+        <v>0.1245309525793156</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>236</v>
@@ -7133,19 +7133,19 @@
         <v>144395</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>124854</v>
+        <v>127079</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>164643</v>
+        <v>164231</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1808712012134681</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1563939948181287</v>
+        <v>0.1591802854793103</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2062339966822329</v>
+        <v>0.2057169352679755</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>243</v>
@@ -7154,19 +7154,19 @@
         <v>157221</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>135654</v>
+        <v>136054</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>178833</v>
+        <v>179874</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.152537376005332</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1316125034400056</v>
+        <v>0.1320005108144008</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1735051065644883</v>
+        <v>0.174515616274372</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>219546</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>203115</v>
+        <v>203434</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>227241</v>
+        <v>227333</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9448061000754523</v>
+        <v>0.944806100075452</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.874097632473089</v>
+        <v>0.8754690474206845</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9779211318872297</v>
+        <v>0.9783210058435242</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>850</v>
@@ -7204,19 +7204,19 @@
         <v>653938</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>633690</v>
+        <v>634102</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>673479</v>
+        <v>671254</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.819128798786532</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7937660033177673</v>
+        <v>0.7942830647320245</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8436060051818715</v>
+        <v>0.8408197145206895</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>951</v>
@@ -7225,19 +7225,19 @@
         <v>873484</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>851872</v>
+        <v>850831</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>895051</v>
+        <v>894651</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8474626239946679</v>
+        <v>0.8474626239946681</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8264948934355117</v>
+        <v>0.8254843837256279</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8683874965599946</v>
+        <v>0.8679994891855992</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>571870</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>529787</v>
+        <v>529505</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>620380</v>
+        <v>619121</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1697900940023129</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1572955342224419</v>
+        <v>0.1572117320921173</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1841927377541775</v>
+        <v>0.1838190790601248</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>948</v>
@@ -7350,19 +7350,19 @@
         <v>604563</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>567388</v>
+        <v>569360</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>641724</v>
+        <v>644087</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1728088165380335</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1621828110507663</v>
+        <v>0.1627463551240367</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1834308901522407</v>
+        <v>0.1841064993209758</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1549</v>
@@ -7371,19 +7371,19 @@
         <v>1176433</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1116049</v>
+        <v>1112471</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1232334</v>
+        <v>1233774</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1713281073020209</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1625341858543842</v>
+        <v>0.1620130950463419</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1794690762951212</v>
+        <v>0.1796788047726154</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2796232</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2747722</v>
+        <v>2748981</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2838315</v>
+        <v>2838597</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8302099059976872</v>
+        <v>0.830209905997687</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8158072622458226</v>
+        <v>0.816180920939875</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8427044657775581</v>
+        <v>0.8427882679078826</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4070</v>
@@ -7421,19 +7421,19 @@
         <v>2893886</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2856725</v>
+        <v>2854362</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2931061</v>
+        <v>2929089</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8271911834619666</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8165691098477599</v>
+        <v>0.8158935006790244</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.837817188949234</v>
+        <v>0.8372536448759634</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6694</v>
@@ -7442,19 +7442,19 @@
         <v>5690118</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5634217</v>
+        <v>5632777</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5750502</v>
+        <v>5754080</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.828671892697979</v>
+        <v>0.8286718926979793</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8205309237048785</v>
+        <v>0.8203211952273847</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8374658141456157</v>
+        <v>0.8379869049536582</v>
       </c>
     </row>
     <row r="24">
